--- a/data/pca/factorExposure/factorExposure_2015-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02329234610567727</v>
+        <v>-0.01265006137137903</v>
       </c>
       <c r="C2">
-        <v>0.02697606961307885</v>
+        <v>0.05373928298350897</v>
       </c>
       <c r="D2">
-        <v>-0.1485774599504057</v>
+        <v>-0.11417174075215</v>
       </c>
       <c r="E2">
-        <v>-0.06508639264322759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0613430475104993</v>
+      </c>
+      <c r="F2">
+        <v>0.03659640453937533</v>
+      </c>
+      <c r="G2">
+        <v>-0.1469566888724925</v>
+      </c>
+      <c r="H2">
+        <v>0.05700149237078127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04856228823257767</v>
+        <v>-0.02385219332634522</v>
       </c>
       <c r="C4">
-        <v>0.07641552009545227</v>
+        <v>0.1134243674194934</v>
       </c>
       <c r="D4">
-        <v>-0.1021070014256914</v>
+        <v>-0.1072901052247022</v>
       </c>
       <c r="E4">
-        <v>-0.1162172177067714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.06053668754129933</v>
+      </c>
+      <c r="F4">
+        <v>0.09217469826436686</v>
+      </c>
+      <c r="G4">
+        <v>-0.02327105462614774</v>
+      </c>
+      <c r="H4">
+        <v>-0.07396034958776518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03038424265288855</v>
+        <v>-0.03469821584436413</v>
       </c>
       <c r="C6">
-        <v>0.01783685786208454</v>
+        <v>0.03802314569518531</v>
       </c>
       <c r="D6">
-        <v>-0.1078141392824029</v>
+        <v>-0.09046312565629414</v>
       </c>
       <c r="E6">
-        <v>-0.07377117711103456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.09177784962921987</v>
+      </c>
+      <c r="F6">
+        <v>0.04054819393505822</v>
+      </c>
+      <c r="G6">
+        <v>0.001548587710220032</v>
+      </c>
+      <c r="H6">
+        <v>0.01342032639675867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0001048012239447865</v>
+        <v>-0.007538179666113783</v>
       </c>
       <c r="C7">
-        <v>0.02557474534971998</v>
+        <v>0.04140049562017516</v>
       </c>
       <c r="D7">
-        <v>-0.1022296791755258</v>
+        <v>-0.08724215552735663</v>
       </c>
       <c r="E7">
-        <v>-0.04419054441998724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.08555064888456287</v>
+      </c>
+      <c r="F7">
+        <v>0.01454153771953936</v>
+      </c>
+      <c r="G7">
+        <v>0.008292874487836104</v>
+      </c>
+      <c r="H7">
+        <v>-0.02446404573694368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001453190783028613</v>
+        <v>0.004709641040662296</v>
       </c>
       <c r="C8">
-        <v>0.02691163079887391</v>
+        <v>0.03814470807006132</v>
       </c>
       <c r="D8">
-        <v>-0.07337667826109683</v>
+        <v>-0.05700426286064039</v>
       </c>
       <c r="E8">
-        <v>-0.05793476731985304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05166948367507769</v>
+      </c>
+      <c r="F8">
+        <v>0.05020462960705979</v>
+      </c>
+      <c r="G8">
+        <v>-0.07552682422537468</v>
+      </c>
+      <c r="H8">
+        <v>-0.04361822188449289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03830508786935123</v>
+        <v>-0.0172460438537829</v>
       </c>
       <c r="C9">
-        <v>0.06668482140055315</v>
+        <v>0.09321980066796065</v>
       </c>
       <c r="D9">
-        <v>-0.1069682940042744</v>
+        <v>-0.09460120627442621</v>
       </c>
       <c r="E9">
-        <v>-0.0959026023568674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.05162981728146618</v>
+      </c>
+      <c r="F9">
+        <v>0.06102270213559757</v>
+      </c>
+      <c r="G9">
+        <v>-0.006673494748753722</v>
+      </c>
+      <c r="H9">
+        <v>-0.02596543255944446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1940804915337377</v>
+        <v>-0.2439015795073737</v>
       </c>
       <c r="C10">
-        <v>-0.1602600046549028</v>
+        <v>-0.09446275558355222</v>
       </c>
       <c r="D10">
-        <v>0.03980065796774102</v>
+        <v>0.01219432011450461</v>
       </c>
       <c r="E10">
-        <v>-0.03200615709196962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02266045077047121</v>
+      </c>
+      <c r="F10">
+        <v>0.04055902125931946</v>
+      </c>
+      <c r="G10">
+        <v>0.006674631789344504</v>
+      </c>
+      <c r="H10">
+        <v>0.004179804491331074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01502879921055264</v>
+        <v>-0.01091161554977483</v>
       </c>
       <c r="C11">
-        <v>0.04313969257726099</v>
+        <v>0.06116066380260798</v>
       </c>
       <c r="D11">
-        <v>-0.04336123803493405</v>
+        <v>-0.03500838904173286</v>
       </c>
       <c r="E11">
-        <v>0.006825966850154556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03949954837736614</v>
+      </c>
+      <c r="F11">
+        <v>-0.01158584266732484</v>
+      </c>
+      <c r="G11">
+        <v>0.003575734801098376</v>
+      </c>
+      <c r="H11">
+        <v>-0.02060919972445564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01385674426747155</v>
+        <v>-0.01110822951147446</v>
       </c>
       <c r="C12">
-        <v>0.04314021553223714</v>
+        <v>0.05196348155594473</v>
       </c>
       <c r="D12">
-        <v>-0.06007223116438072</v>
+        <v>-0.04331288700362647</v>
       </c>
       <c r="E12">
-        <v>-0.01222815377809198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03435204735392219</v>
+      </c>
+      <c r="F12">
+        <v>-0.0131673161600682</v>
+      </c>
+      <c r="G12">
+        <v>0.01359509959304414</v>
+      </c>
+      <c r="H12">
+        <v>0.01874123377606807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009707790925578816</v>
+        <v>-0.005380112289696293</v>
       </c>
       <c r="C13">
-        <v>0.02758209369166749</v>
+        <v>0.06010998528417816</v>
       </c>
       <c r="D13">
-        <v>-0.1279244599322995</v>
+        <v>-0.1477906380902964</v>
       </c>
       <c r="E13">
-        <v>-0.08072635528878901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.08576836937030353</v>
+      </c>
+      <c r="F13">
+        <v>0.04041734671237474</v>
+      </c>
+      <c r="G13">
+        <v>-0.06115061681359282</v>
+      </c>
+      <c r="H13">
+        <v>0.06925549285531216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007320101756423772</v>
+        <v>-0.003952978067411532</v>
       </c>
       <c r="C14">
-        <v>0.01737004144228999</v>
+        <v>0.03492435819103866</v>
       </c>
       <c r="D14">
-        <v>-0.07607075118242716</v>
+        <v>-0.0852559753036323</v>
       </c>
       <c r="E14">
-        <v>-0.03834933968547403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09039365331298771</v>
+      </c>
+      <c r="F14">
+        <v>0.03133075136881668</v>
+      </c>
+      <c r="G14">
+        <v>-0.01871637039536087</v>
+      </c>
+      <c r="H14">
+        <v>0.03091930453582666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002992806373294991</v>
+        <v>0.003237030939290292</v>
       </c>
       <c r="C15">
-        <v>0.01314249377459174</v>
+        <v>0.03122386726085256</v>
       </c>
       <c r="D15">
-        <v>-0.04743898404751932</v>
+        <v>-0.05802637780171374</v>
       </c>
       <c r="E15">
-        <v>-0.01482941156996276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.04184183959758409</v>
+      </c>
+      <c r="F15">
+        <v>0.00880192372082883</v>
+      </c>
+      <c r="G15">
+        <v>-0.02657727325920659</v>
+      </c>
+      <c r="H15">
+        <v>-0.01414506560780097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01445785876058182</v>
+        <v>-0.01046916911137938</v>
       </c>
       <c r="C16">
-        <v>0.0396565843378755</v>
+        <v>0.05335810942505081</v>
       </c>
       <c r="D16">
-        <v>-0.0469918740834541</v>
+        <v>-0.03790853789311596</v>
       </c>
       <c r="E16">
-        <v>-0.005281496111313217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03991210529428997</v>
+      </c>
+      <c r="F16">
+        <v>-0.006288581476073578</v>
+      </c>
+      <c r="G16">
+        <v>0.01453828159311735</v>
+      </c>
+      <c r="H16">
+        <v>-0.009127629642277786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003164672611280317</v>
+        <v>0.000615536444562362</v>
       </c>
       <c r="C19">
-        <v>0.0215210885483793</v>
+        <v>0.01788750389905599</v>
       </c>
       <c r="D19">
-        <v>-0.07065571682403941</v>
+        <v>-0.0384819723705114</v>
       </c>
       <c r="E19">
-        <v>-0.03815342673843556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.003360066958988702</v>
+      </c>
+      <c r="F19">
+        <v>0.005181423407785816</v>
+      </c>
+      <c r="G19">
+        <v>-0.01918985631221789</v>
+      </c>
+      <c r="H19">
+        <v>0.01768126006033017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003746035229870948</v>
+        <v>-0.006233861180414808</v>
       </c>
       <c r="C20">
-        <v>0.0266911721179691</v>
+        <v>0.04452432060366558</v>
       </c>
       <c r="D20">
-        <v>-0.06893523156821096</v>
+        <v>-0.07408392005752296</v>
       </c>
       <c r="E20">
-        <v>-0.05585090623347647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05251461814835946</v>
+      </c>
+      <c r="F20">
+        <v>0.02687131056228338</v>
+      </c>
+      <c r="G20">
+        <v>0.01048885883677131</v>
+      </c>
+      <c r="H20">
+        <v>-0.02904436513237114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00461963401789167</v>
+        <v>-0.004261205620216281</v>
       </c>
       <c r="C21">
-        <v>0.03151262970844847</v>
+        <v>0.04701787850353635</v>
       </c>
       <c r="D21">
-        <v>-0.1197207482738104</v>
+        <v>-0.1115182920067112</v>
       </c>
       <c r="E21">
-        <v>-0.1230230107238491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.07043545032959544</v>
+      </c>
+      <c r="F21">
+        <v>0.0955434351170929</v>
+      </c>
+      <c r="G21">
+        <v>-0.07474486003447062</v>
+      </c>
+      <c r="H21">
+        <v>0.09038552735054159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004576126261999354</v>
+        <v>0.005973626024920927</v>
       </c>
       <c r="C22">
-        <v>0.05371976722471154</v>
+        <v>0.08400296608527186</v>
       </c>
       <c r="D22">
-        <v>-0.2112398590677294</v>
+        <v>-0.2108702912482045</v>
       </c>
       <c r="E22">
-        <v>-0.09527789666888667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06352023512141711</v>
+      </c>
+      <c r="F22">
+        <v>0.04041154775574186</v>
+      </c>
+      <c r="G22">
+        <v>-0.2486253247481843</v>
+      </c>
+      <c r="H22">
+        <v>-0.1373966468658578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005111031573429441</v>
+        <v>0.002875767235741762</v>
       </c>
       <c r="C23">
-        <v>0.05396955251805252</v>
+        <v>0.08572598529952828</v>
       </c>
       <c r="D23">
-        <v>-0.2100480906339251</v>
+        <v>-0.2144405030098203</v>
       </c>
       <c r="E23">
-        <v>-0.09536695739038893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0604892713368202</v>
+      </c>
+      <c r="F23">
+        <v>0.04362895380314796</v>
+      </c>
+      <c r="G23">
+        <v>-0.2423809310156276</v>
+      </c>
+      <c r="H23">
+        <v>-0.1307963813674098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02029389144404213</v>
+        <v>-0.01171982690295785</v>
       </c>
       <c r="C24">
-        <v>0.06145974658588695</v>
+        <v>0.07109511106328743</v>
       </c>
       <c r="D24">
-        <v>-0.0634656348531082</v>
+        <v>-0.03972366104894064</v>
       </c>
       <c r="E24">
-        <v>-0.01096255355226669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04912221398970666</v>
+      </c>
+      <c r="F24">
+        <v>-0.005954809706445317</v>
+      </c>
+      <c r="G24">
+        <v>-0.003627934851671065</v>
+      </c>
+      <c r="H24">
+        <v>-0.01110377339818993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02113258989457547</v>
+        <v>-0.01636150636258498</v>
       </c>
       <c r="C25">
-        <v>0.05362242774863029</v>
+        <v>0.06586866884935551</v>
       </c>
       <c r="D25">
-        <v>-0.05429927399943808</v>
+        <v>-0.04276762634005883</v>
       </c>
       <c r="E25">
-        <v>-0.01414738673056478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03309910885952421</v>
+      </c>
+      <c r="F25">
+        <v>-0.004924445541737476</v>
+      </c>
+      <c r="G25">
+        <v>0.01067414553554339</v>
+      </c>
+      <c r="H25">
+        <v>-0.007452985549781453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007906018152897884</v>
+        <v>-0.01702717861424206</v>
       </c>
       <c r="C26">
-        <v>0.0184576170196821</v>
+        <v>0.03122051699657344</v>
       </c>
       <c r="D26">
-        <v>-0.06039219811462103</v>
+        <v>-0.04867799248051902</v>
       </c>
       <c r="E26">
-        <v>-0.04088876430750095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06420492952980188</v>
+      </c>
+      <c r="F26">
+        <v>0.04646383223779846</v>
+      </c>
+      <c r="G26">
+        <v>-0.0296540561662004</v>
+      </c>
+      <c r="H26">
+        <v>0.0001942250269304895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.275386692060415</v>
+        <v>-0.3128208733808643</v>
       </c>
       <c r="C28">
-        <v>-0.1759538065030162</v>
+        <v>-0.0949787123372247</v>
       </c>
       <c r="D28">
-        <v>0.012538367151874</v>
+        <v>0.01495176314890261</v>
       </c>
       <c r="E28">
-        <v>-0.03478613661192245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0550736763069384</v>
+      </c>
+      <c r="F28">
+        <v>0.04641690496840437</v>
+      </c>
+      <c r="G28">
+        <v>-0.06202275656038762</v>
+      </c>
+      <c r="H28">
+        <v>-0.0201219247478844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002639232705705289</v>
+        <v>-0.002462646648450848</v>
       </c>
       <c r="C29">
-        <v>0.02111797865585485</v>
+        <v>0.04115207360091632</v>
       </c>
       <c r="D29">
-        <v>-0.07138975961138226</v>
+        <v>-0.08927216448466678</v>
       </c>
       <c r="E29">
-        <v>-0.04661469317370181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1038521920027353</v>
+      </c>
+      <c r="F29">
+        <v>0.03794596869223203</v>
+      </c>
+      <c r="G29">
+        <v>-0.01411655441696769</v>
+      </c>
+      <c r="H29">
+        <v>0.03793919896922136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02947650963111234</v>
+        <v>-0.01894162401464592</v>
       </c>
       <c r="C30">
-        <v>0.07179292621108678</v>
+        <v>0.09916899867941019</v>
       </c>
       <c r="D30">
-        <v>-0.1469987792329756</v>
+        <v>-0.111010734046639</v>
       </c>
       <c r="E30">
-        <v>-0.06422521933060547</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09276213458780554</v>
+      </c>
+      <c r="F30">
+        <v>0.01466832518235128</v>
+      </c>
+      <c r="G30">
+        <v>-0.01970307198034619</v>
+      </c>
+      <c r="H30">
+        <v>-0.04557052978365107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03491561901908333</v>
+        <v>-0.01184651025994208</v>
       </c>
       <c r="C31">
-        <v>0.08499673167205302</v>
+        <v>0.09519230178881133</v>
       </c>
       <c r="D31">
-        <v>-0.05421324431579354</v>
+        <v>-0.02986172926834826</v>
       </c>
       <c r="E31">
-        <v>-0.02543621819342175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02624577535025979</v>
+      </c>
+      <c r="F31">
+        <v>0.01583607666106904</v>
+      </c>
+      <c r="G31">
+        <v>-0.01627721308544199</v>
+      </c>
+      <c r="H31">
+        <v>-0.006246048963030823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01503655006364908</v>
+        <v>-0.01379871551713808</v>
       </c>
       <c r="C32">
-        <v>0.0409725595822369</v>
+        <v>0.04990667297743139</v>
       </c>
       <c r="D32">
-        <v>-0.08494209479048699</v>
+        <v>-0.07520462743712229</v>
       </c>
       <c r="E32">
-        <v>-0.07321599265489431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01699364230705887</v>
+      </c>
+      <c r="F32">
+        <v>0.04839259639061198</v>
+      </c>
+      <c r="G32">
+        <v>-0.02961966679123723</v>
+      </c>
+      <c r="H32">
+        <v>0.02334365693866408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007581247081281888</v>
+        <v>-0.008928405423223004</v>
       </c>
       <c r="C33">
-        <v>0.04127123894290169</v>
+        <v>0.06422094154719508</v>
       </c>
       <c r="D33">
-        <v>-0.1051472327109665</v>
+        <v>-0.1039069505081265</v>
       </c>
       <c r="E33">
-        <v>-0.06754134637379462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.06423243745322815</v>
+      </c>
+      <c r="F33">
+        <v>0.03037462401087891</v>
+      </c>
+      <c r="G33">
+        <v>-0.01238378648447601</v>
+      </c>
+      <c r="H33">
+        <v>-0.002990189842153017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01709707441703427</v>
+        <v>-0.0103219478732863</v>
       </c>
       <c r="C34">
-        <v>0.06210413561287633</v>
+        <v>0.06355295285245156</v>
       </c>
       <c r="D34">
-        <v>-0.05673426178424372</v>
+        <v>-0.02070536269653878</v>
       </c>
       <c r="E34">
-        <v>0.03396260448070344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03670371040616185</v>
+      </c>
+      <c r="F34">
+        <v>-0.03938973465964025</v>
+      </c>
+      <c r="G34">
+        <v>-0.004032700089887076</v>
+      </c>
+      <c r="H34">
+        <v>0.002584791718402339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>2.183339981325488e-05</v>
+        <v>-0.004021443249469787</v>
       </c>
       <c r="C35">
-        <v>0.000173639496160015</v>
+        <v>0.01518527986662987</v>
       </c>
       <c r="D35">
-        <v>0.0001462952295956071</v>
+        <v>-0.03337781210512279</v>
       </c>
       <c r="E35">
-        <v>0.0002907782672069029</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.02279167649413736</v>
+      </c>
+      <c r="F35">
+        <v>0.01826852080956563</v>
+      </c>
+      <c r="G35">
+        <v>0.001820112005955056</v>
+      </c>
+      <c r="H35">
+        <v>0.005896567793470225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009924708076665704</v>
+        <v>-0.01203196203861616</v>
       </c>
       <c r="C36">
-        <v>0.008628100302117974</v>
+        <v>0.0247564790528302</v>
       </c>
       <c r="D36">
-        <v>-0.06250767755085848</v>
+        <v>-0.06079827432736903</v>
       </c>
       <c r="E36">
-        <v>-0.06187686414715097</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05441458274015251</v>
+      </c>
+      <c r="F36">
+        <v>0.04855912022891973</v>
+      </c>
+      <c r="G36">
+        <v>-0.01665415636126839</v>
+      </c>
+      <c r="H36">
+        <v>-0.000637854784371065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005847744761811658</v>
+        <v>-0.0115698173755523</v>
       </c>
       <c r="C38">
-        <v>0.008905914780455975</v>
+        <v>0.02830935869617693</v>
       </c>
       <c r="D38">
-        <v>-0.08984171347572295</v>
+        <v>-0.08601527534562108</v>
       </c>
       <c r="E38">
-        <v>-0.03813697850435532</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0405840355155844</v>
+      </c>
+      <c r="F38">
+        <v>0.01010257599722072</v>
+      </c>
+      <c r="G38">
+        <v>-0.03819115000785604</v>
+      </c>
+      <c r="H38">
+        <v>-0.03728981675980821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01442332529350411</v>
+        <v>-0.007436732067741978</v>
       </c>
       <c r="C39">
-        <v>0.0629680862160462</v>
+        <v>0.08885943977105977</v>
       </c>
       <c r="D39">
-        <v>-0.104659402061333</v>
+        <v>-0.08013321225677457</v>
       </c>
       <c r="E39">
-        <v>-0.02627785236619405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08517772572171668</v>
+      </c>
+      <c r="F39">
+        <v>-0.00621807875558756</v>
+      </c>
+      <c r="G39">
+        <v>-0.001346559672283345</v>
+      </c>
+      <c r="H39">
+        <v>-0.009440034477529695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01896228998594846</v>
+        <v>-0.01454794281307065</v>
       </c>
       <c r="C40">
-        <v>0.02611392743613392</v>
+        <v>0.0438271235805016</v>
       </c>
       <c r="D40">
-        <v>-0.1194412955231203</v>
+        <v>-0.0819151818840393</v>
       </c>
       <c r="E40">
-        <v>-0.02138551094048052</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07422583321451862</v>
+      </c>
+      <c r="F40">
+        <v>-0.02898379133098751</v>
+      </c>
+      <c r="G40">
+        <v>-0.08437622820183718</v>
+      </c>
+      <c r="H40">
+        <v>0.02050149481887011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0113384355100299</v>
+        <v>-0.01893170380730317</v>
       </c>
       <c r="C41">
-        <v>0.005421185427516356</v>
+        <v>0.02378022403340706</v>
       </c>
       <c r="D41">
-        <v>-0.03112037120519842</v>
+        <v>-0.04018655930473805</v>
       </c>
       <c r="E41">
-        <v>-0.03015220289270122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01547657667235522</v>
+      </c>
+      <c r="F41">
+        <v>0.02140487150167193</v>
+      </c>
+      <c r="G41">
+        <v>-0.01108286638217895</v>
+      </c>
+      <c r="H41">
+        <v>-0.005149234407995737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.000748745049114348</v>
+        <v>-0.01010413200946004</v>
       </c>
       <c r="C43">
-        <v>0.001425562182131762</v>
+        <v>0.01689839981360762</v>
       </c>
       <c r="D43">
-        <v>-0.04471077692776634</v>
+        <v>-0.04890810325081171</v>
       </c>
       <c r="E43">
-        <v>-0.03353164299745288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02929508681589676</v>
+      </c>
+      <c r="F43">
+        <v>0.02372649267048423</v>
+      </c>
+      <c r="G43">
+        <v>-0.005891218458543617</v>
+      </c>
+      <c r="H43">
+        <v>-0.01915397599958088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02022475323133572</v>
+        <v>-0.01131029621326381</v>
       </c>
       <c r="C44">
-        <v>0.02810014887534273</v>
+        <v>0.05175156841860003</v>
       </c>
       <c r="D44">
-        <v>-0.09527149896777863</v>
+        <v>-0.0930315286389508</v>
       </c>
       <c r="E44">
-        <v>-0.0817334364289628</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07656666391678989</v>
+      </c>
+      <c r="F44">
+        <v>0.03761534030806112</v>
+      </c>
+      <c r="G44">
+        <v>-0.0434356597882239</v>
+      </c>
+      <c r="H44">
+        <v>-0.02611881372881531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002561080084574376</v>
+        <v>0.001335875186097524</v>
       </c>
       <c r="C46">
-        <v>0.0310408006367897</v>
+        <v>0.04331373636232325</v>
       </c>
       <c r="D46">
-        <v>-0.07983642956156549</v>
+        <v>-0.06470210110111579</v>
       </c>
       <c r="E46">
-        <v>-0.0435335181569633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07892791146124931</v>
+      </c>
+      <c r="F46">
+        <v>0.03279104718631571</v>
+      </c>
+      <c r="G46">
+        <v>-0.02438094123785283</v>
+      </c>
+      <c r="H46">
+        <v>0.002012835543124336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0695467098265955</v>
+        <v>-0.03223617338737545</v>
       </c>
       <c r="C47">
-        <v>0.1138798601922549</v>
+        <v>0.1252897094130408</v>
       </c>
       <c r="D47">
-        <v>-0.05898909102261714</v>
+        <v>-0.0230632647374697</v>
       </c>
       <c r="E47">
-        <v>-0.02852561533780519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.000480431582561512</v>
+      </c>
+      <c r="F47">
+        <v>-0.00383165621122207</v>
+      </c>
+      <c r="G47">
+        <v>0.01971586384199861</v>
+      </c>
+      <c r="H47">
+        <v>-0.01058613059897243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01040152195853242</v>
+        <v>-0.01485633579425955</v>
       </c>
       <c r="C48">
-        <v>0.01824562312452114</v>
+        <v>0.03503197995408941</v>
       </c>
       <c r="D48">
-        <v>-0.06650222499871782</v>
+        <v>-0.0663131303480228</v>
       </c>
       <c r="E48">
-        <v>-0.06720023561838409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04889669497480784</v>
+      </c>
+      <c r="F48">
+        <v>0.05679545155687559</v>
+      </c>
+      <c r="G48">
+        <v>-0.02516330773916884</v>
+      </c>
+      <c r="H48">
+        <v>-0.01302728206147634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002223386893572287</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0007890396257059701</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001573943342720331</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0003154307948867323</v>
+      </c>
+      <c r="F49">
+        <v>-0.0001297951776923938</v>
+      </c>
+      <c r="G49">
+        <v>0.001996561782918682</v>
+      </c>
+      <c r="H49">
+        <v>0.002719905755252401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03192140181305697</v>
+        <v>-0.01518632138201677</v>
       </c>
       <c r="C50">
-        <v>0.05822436815020447</v>
+        <v>0.07597575368796629</v>
       </c>
       <c r="D50">
-        <v>-0.05906919617697142</v>
+        <v>-0.04286245837957881</v>
       </c>
       <c r="E50">
-        <v>-0.01915473137394139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02992003066226303</v>
+      </c>
+      <c r="F50">
+        <v>0.009244622510850668</v>
+      </c>
+      <c r="G50">
+        <v>-0.01605605139988795</v>
+      </c>
+      <c r="H50">
+        <v>-0.02042364240683606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004947388020172318</v>
+        <v>0.003969547134111359</v>
       </c>
       <c r="C51">
-        <v>0.006629401614326355</v>
+        <v>0.01934273171368826</v>
       </c>
       <c r="D51">
-        <v>-0.06171330913134006</v>
+        <v>-0.0430019727851647</v>
       </c>
       <c r="E51">
-        <v>-0.03461537402611987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05675143922107946</v>
+      </c>
+      <c r="F51">
+        <v>0.03696379754579655</v>
+      </c>
+      <c r="G51">
+        <v>-0.04903699918293711</v>
+      </c>
+      <c r="H51">
+        <v>0.0006127239763431361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1039708469911315</v>
+        <v>-0.06054503371169871</v>
       </c>
       <c r="C53">
-        <v>0.1350048192263693</v>
+        <v>0.1625294735174534</v>
       </c>
       <c r="D53">
-        <v>0.003871539499057183</v>
+        <v>0.02075622219804393</v>
       </c>
       <c r="E53">
-        <v>-0.03590507352318203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02891938472729192</v>
+      </c>
+      <c r="F53">
+        <v>0.04034809206902866</v>
+      </c>
+      <c r="G53">
+        <v>-0.008645717293265262</v>
+      </c>
+      <c r="H53">
+        <v>-0.007440728651539568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.009177067306890748</v>
+        <v>-0.01243773691442506</v>
       </c>
       <c r="C54">
-        <v>0.02381911138411905</v>
+        <v>0.04175340047777919</v>
       </c>
       <c r="D54">
-        <v>-0.0928703321281998</v>
+        <v>-0.07342132606684802</v>
       </c>
       <c r="E54">
-        <v>-0.0326101204443499</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04765437247845965</v>
+      </c>
+      <c r="F54">
+        <v>0.007287334067957173</v>
+      </c>
+      <c r="G54">
+        <v>-0.02602487338116494</v>
+      </c>
+      <c r="H54">
+        <v>-0.02648475622402899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08614595386289411</v>
+        <v>-0.04288916554435634</v>
       </c>
       <c r="C55">
-        <v>0.1121939530217458</v>
+        <v>0.1273594074038276</v>
       </c>
       <c r="D55">
-        <v>0.001546712842832403</v>
+        <v>0.04491448755309475</v>
       </c>
       <c r="E55">
-        <v>0.006772597402430388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.009303838703365704</v>
+      </c>
+      <c r="F55">
+        <v>0.002675956459193023</v>
+      </c>
+      <c r="G55">
+        <v>-0.01579068606313719</v>
+      </c>
+      <c r="H55">
+        <v>0.006013305196579785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1273214453967406</v>
+        <v>-0.06189292383701244</v>
       </c>
       <c r="C56">
-        <v>0.1574867360774817</v>
+        <v>0.190726634589847</v>
       </c>
       <c r="D56">
-        <v>-0.0218283215317175</v>
+        <v>0.04011590188385632</v>
       </c>
       <c r="E56">
-        <v>0.009565639195790189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03387776220397595</v>
+      </c>
+      <c r="F56">
+        <v>0.002913501344915852</v>
+      </c>
+      <c r="G56">
+        <v>-0.06803096506044161</v>
+      </c>
+      <c r="H56">
+        <v>-0.00578740251776479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002750538530308648</v>
+        <v>-0.008665907968793142</v>
       </c>
       <c r="C58">
-        <v>0.01916437120234883</v>
+        <v>0.06833156702909096</v>
       </c>
       <c r="D58">
-        <v>-0.221592449873612</v>
+        <v>-0.2598775907262042</v>
       </c>
       <c r="E58">
-        <v>-0.1792761375538836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.09564396161453732</v>
+      </c>
+      <c r="F58">
+        <v>0.139656350694222</v>
+      </c>
+      <c r="G58">
+        <v>-0.1601213626025023</v>
+      </c>
+      <c r="H58">
+        <v>-0.09102981740702668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1996839393415532</v>
+        <v>-0.2578924009718906</v>
       </c>
       <c r="C59">
-        <v>-0.1264131816175966</v>
+        <v>-0.05840450089915628</v>
       </c>
       <c r="D59">
-        <v>-0.05010757196658937</v>
+        <v>-0.04329022769122629</v>
       </c>
       <c r="E59">
-        <v>-0.04113159445435388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01172123862920413</v>
+      </c>
+      <c r="F59">
+        <v>0.01902272703879432</v>
+      </c>
+      <c r="G59">
+        <v>-0.028610296087676</v>
+      </c>
+      <c r="H59">
+        <v>0.03426088293174635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1785414442713233</v>
+        <v>-0.1538944437242054</v>
       </c>
       <c r="C60">
-        <v>0.1036262501844113</v>
+        <v>0.1626203734619699</v>
       </c>
       <c r="D60">
-        <v>-0.1181033916605767</v>
+        <v>-0.03559419451301717</v>
       </c>
       <c r="E60">
-        <v>0.06585844607859066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1116006005887688</v>
+      </c>
+      <c r="F60">
+        <v>-0.1905216786049397</v>
+      </c>
+      <c r="G60">
+        <v>0.2534416785162781</v>
+      </c>
+      <c r="H60">
+        <v>0.1382479638154798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0256186891768944</v>
+        <v>-0.01501681723190173</v>
       </c>
       <c r="C61">
-        <v>0.05864310070279106</v>
+        <v>0.08263197028471203</v>
       </c>
       <c r="D61">
-        <v>-0.07941051197739843</v>
+        <v>-0.05855365186467947</v>
       </c>
       <c r="E61">
-        <v>-0.01027893790801388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05999315917879972</v>
+      </c>
+      <c r="F61">
+        <v>-0.01449917935325131</v>
+      </c>
+      <c r="G61">
+        <v>0.004152711697460578</v>
+      </c>
+      <c r="H61">
+        <v>-0.0002158626192978253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01126168112322169</v>
+        <v>-0.0159474874945241</v>
       </c>
       <c r="C63">
-        <v>0.02646360203733812</v>
+        <v>0.04552270217452419</v>
       </c>
       <c r="D63">
-        <v>-0.07623025415513719</v>
+        <v>-0.04778808482710353</v>
       </c>
       <c r="E63">
-        <v>-0.03650804486557579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.08130640112259367</v>
+      </c>
+      <c r="F63">
+        <v>0.02176620036459322</v>
+      </c>
+      <c r="G63">
+        <v>-0.008662127177489718</v>
+      </c>
+      <c r="H63">
+        <v>-0.008192587101211535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04962894707019731</v>
+        <v>-0.01771287585233986</v>
       </c>
       <c r="C64">
-        <v>0.09206627305131057</v>
+        <v>0.1055066037122015</v>
       </c>
       <c r="D64">
-        <v>-0.01908448870722904</v>
+        <v>-0.01017631075609821</v>
       </c>
       <c r="E64">
-        <v>-0.02830575072247456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03341977813211337</v>
+      </c>
+      <c r="F64">
+        <v>0.02124102736313239</v>
+      </c>
+      <c r="G64">
+        <v>0.0243382244361794</v>
+      </c>
+      <c r="H64">
+        <v>-0.03364682913166457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02723216883628669</v>
+        <v>-0.02675061751275231</v>
       </c>
       <c r="C65">
-        <v>0.01915160389264488</v>
+        <v>0.04489872144357224</v>
       </c>
       <c r="D65">
-        <v>-0.09453118223127902</v>
+        <v>-0.09193393580589732</v>
       </c>
       <c r="E65">
-        <v>-0.03617273657251314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07045068938932185</v>
+      </c>
+      <c r="F65">
+        <v>-0.01040678106573737</v>
+      </c>
+      <c r="G65">
+        <v>0.04841606928664454</v>
+      </c>
+      <c r="H65">
+        <v>-0.02286989898617801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02105208846406341</v>
+        <v>-0.008528156115939408</v>
       </c>
       <c r="C66">
-        <v>0.07486499908315385</v>
+        <v>0.1094551377621635</v>
       </c>
       <c r="D66">
-        <v>-0.1250750151216578</v>
+        <v>-0.1041150326799327</v>
       </c>
       <c r="E66">
-        <v>-0.02828729627256089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08267006012050175</v>
+      </c>
+      <c r="F66">
+        <v>-0.00631193645068486</v>
+      </c>
+      <c r="G66">
+        <v>-0.02227349487516907</v>
+      </c>
+      <c r="H66">
+        <v>-0.01580218294047551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01972579657068182</v>
+        <v>-0.0206420921370693</v>
       </c>
       <c r="C67">
-        <v>0.0199474100200708</v>
+        <v>0.03578264308246087</v>
       </c>
       <c r="D67">
-        <v>-0.05450048784782975</v>
+        <v>-0.04654133820381316</v>
       </c>
       <c r="E67">
-        <v>-0.001491819059862561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03400278514222413</v>
+      </c>
+      <c r="F67">
+        <v>-0.01914027283140962</v>
+      </c>
+      <c r="G67">
+        <v>-0.01333011082037361</v>
+      </c>
+      <c r="H67">
+        <v>-0.02543291242780449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2128931088715106</v>
+        <v>-0.2785201641610851</v>
       </c>
       <c r="C68">
-        <v>-0.1394449444224085</v>
+        <v>-0.07130008785781697</v>
       </c>
       <c r="D68">
-        <v>-0.02216067425658778</v>
+        <v>-0.03038543054308503</v>
       </c>
       <c r="E68">
-        <v>-0.02618651322715924</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006537931283018962</v>
+      </c>
+      <c r="F68">
+        <v>0.02522117392506857</v>
+      </c>
+      <c r="G68">
+        <v>-0.05177111561537871</v>
+      </c>
+      <c r="H68">
+        <v>-0.000263353952342474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05091880716899337</v>
+        <v>-0.01612426842078762</v>
       </c>
       <c r="C69">
-        <v>0.118281461706917</v>
+        <v>0.1133816565292398</v>
       </c>
       <c r="D69">
-        <v>-0.07631385447229108</v>
+        <v>-0.01830673433362375</v>
       </c>
       <c r="E69">
-        <v>-0.02527011030415404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01414917756974699</v>
+      </c>
+      <c r="F69">
+        <v>-0.01542709132255865</v>
+      </c>
+      <c r="G69">
+        <v>0.01160802971569623</v>
+      </c>
+      <c r="H69">
+        <v>0.005342799863386391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2306530462606782</v>
+        <v>-0.2715101715728943</v>
       </c>
       <c r="C71">
-        <v>-0.1612382164037314</v>
+        <v>-0.08674436944451001</v>
       </c>
       <c r="D71">
-        <v>-0.01418075330467282</v>
+        <v>-0.007362528630809171</v>
       </c>
       <c r="E71">
-        <v>-0.005017257741454951</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.006219146886940124</v>
+      </c>
+      <c r="F71">
+        <v>0.0118674540250927</v>
+      </c>
+      <c r="G71">
+        <v>-0.04403730582216522</v>
+      </c>
+      <c r="H71">
+        <v>-0.01669273105130252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09955363845522938</v>
+        <v>-0.06541510580922025</v>
       </c>
       <c r="C72">
-        <v>0.07640869141595467</v>
+        <v>0.1235130766703198</v>
       </c>
       <c r="D72">
-        <v>-0.1029902269067394</v>
+        <v>-0.04452929938752296</v>
       </c>
       <c r="E72">
-        <v>-0.01965971537159159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08313604973435534</v>
+      </c>
+      <c r="F72">
+        <v>-0.01742732973207725</v>
+      </c>
+      <c r="G72">
+        <v>0.03406363161937136</v>
+      </c>
+      <c r="H72">
+        <v>-0.003795615342428766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1703076390996938</v>
+        <v>-0.1577426768604003</v>
       </c>
       <c r="C73">
-        <v>0.08125063259945139</v>
+        <v>0.1626926125353873</v>
       </c>
       <c r="D73">
-        <v>-0.1855325867088555</v>
+        <v>-0.05268845462590162</v>
       </c>
       <c r="E73">
-        <v>0.1158927565413716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2840963084174924</v>
+      </c>
+      <c r="F73">
+        <v>-0.2933605747777852</v>
+      </c>
+      <c r="G73">
+        <v>0.4121300720947945</v>
+      </c>
+      <c r="H73">
+        <v>0.1397766760525664</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09626294181231478</v>
+        <v>-0.051754615457853</v>
       </c>
       <c r="C74">
-        <v>0.1203046353549663</v>
+        <v>0.1406320436759942</v>
       </c>
       <c r="D74">
-        <v>0.04754107452580394</v>
+        <v>0.04889862648583319</v>
       </c>
       <c r="E74">
-        <v>-0.01357974499837317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02856449119762067</v>
+      </c>
+      <c r="F74">
+        <v>0.03076003952704901</v>
+      </c>
+      <c r="G74">
+        <v>0.008384572643329395</v>
+      </c>
+      <c r="H74">
+        <v>0.002278079863653253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2118106950920842</v>
+        <v>-0.1004936732773201</v>
       </c>
       <c r="C75">
-        <v>0.2149453906126673</v>
+        <v>0.2605280791417068</v>
       </c>
       <c r="D75">
-        <v>0.05475206778113857</v>
+        <v>0.1170013325495028</v>
       </c>
       <c r="E75">
-        <v>0.089064889095607</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1191287964320421</v>
+      </c>
+      <c r="F75">
+        <v>-0.05225053600587054</v>
+      </c>
+      <c r="G75">
+        <v>-0.1058879318906291</v>
+      </c>
+      <c r="H75">
+        <v>-0.0778402295193749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1260233652253271</v>
+        <v>-0.06035941872077977</v>
       </c>
       <c r="C76">
-        <v>0.144021332091983</v>
+        <v>0.175764918977818</v>
       </c>
       <c r="D76">
-        <v>-0.001852110305157368</v>
+        <v>0.05047932782320324</v>
       </c>
       <c r="E76">
-        <v>0.01812735149803179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03899298640183123</v>
+      </c>
+      <c r="F76">
+        <v>-0.00599346575286982</v>
+      </c>
+      <c r="G76">
+        <v>-0.04362586983899424</v>
+      </c>
+      <c r="H76">
+        <v>-0.01356526791870931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0145104396871194</v>
+        <v>-0.003597569552324931</v>
       </c>
       <c r="C77">
-        <v>0.0804593297849638</v>
+        <v>0.1226212256826898</v>
       </c>
       <c r="D77">
-        <v>-0.2250603917769384</v>
+        <v>-0.5302056149942499</v>
       </c>
       <c r="E77">
-        <v>-0.1549564070887071</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7508249888815463</v>
+      </c>
+      <c r="F77">
+        <v>-0.1622780719463868</v>
+      </c>
+      <c r="G77">
+        <v>0.2081991241058316</v>
+      </c>
+      <c r="H77">
+        <v>0.006503349903234684</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03348806330086117</v>
+        <v>-0.0232048759136474</v>
       </c>
       <c r="C78">
-        <v>0.07409450806024304</v>
+        <v>0.09528306832780825</v>
       </c>
       <c r="D78">
-        <v>-0.1498176736918322</v>
+        <v>-0.08109278406941581</v>
       </c>
       <c r="E78">
-        <v>-0.09401580883386491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08634645731248566</v>
+      </c>
+      <c r="F78">
+        <v>0.04382541604792535</v>
+      </c>
+      <c r="G78">
+        <v>-0.0924663882359562</v>
+      </c>
+      <c r="H78">
+        <v>0.03661463619094571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1066654135430302</v>
+        <v>-0.05150281969673453</v>
       </c>
       <c r="C79">
-        <v>0.2100614946918641</v>
+        <v>0.2140045371822396</v>
       </c>
       <c r="D79">
-        <v>0.5048047775791725</v>
+        <v>0.1396669649460885</v>
       </c>
       <c r="E79">
-        <v>-0.7478439139730672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.09954948044935176</v>
+      </c>
+      <c r="F79">
+        <v>0.7905392756894036</v>
+      </c>
+      <c r="G79">
+        <v>0.424910575490019</v>
+      </c>
+      <c r="H79">
+        <v>0.01791073948487876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003588774205404951</v>
+        <v>-0.007789806510260849</v>
       </c>
       <c r="C80">
-        <v>0.04613329029101884</v>
+        <v>0.04579635466191298</v>
       </c>
       <c r="D80">
-        <v>-0.04229905651171797</v>
+        <v>-0.02540808971320169</v>
       </c>
       <c r="E80">
-        <v>-0.004567897639776073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06333991061307248</v>
+      </c>
+      <c r="F80">
+        <v>0.0009582719825985514</v>
+      </c>
+      <c r="G80">
+        <v>-0.02450741988196899</v>
+      </c>
+      <c r="H80">
+        <v>0.08635954899340548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1034340190752364</v>
+        <v>-0.03722477013025722</v>
       </c>
       <c r="C81">
-        <v>0.1394070386955214</v>
+        <v>0.1582532650471042</v>
       </c>
       <c r="D81">
-        <v>0.0740570470992868</v>
+        <v>0.07062259629954677</v>
       </c>
       <c r="E81">
-        <v>0.003714020594881284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06204167909159289</v>
+      </c>
+      <c r="F81">
+        <v>0.05078166085166839</v>
+      </c>
+      <c r="G81">
+        <v>-0.07047917593433302</v>
+      </c>
+      <c r="H81">
+        <v>0.00654542281697702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.213178580314894</v>
+        <v>-0.08320191584349618</v>
       </c>
       <c r="C82">
-        <v>0.3103869079801612</v>
+        <v>0.2980934685254859</v>
       </c>
       <c r="D82">
-        <v>0.09891117368540919</v>
+        <v>0.2142755725368975</v>
       </c>
       <c r="E82">
-        <v>0.2287726938686183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.115222069186692</v>
+      </c>
+      <c r="F82">
+        <v>-0.1228068069528789</v>
+      </c>
+      <c r="G82">
+        <v>-0.148869741611005</v>
+      </c>
+      <c r="H82">
+        <v>0.001201337727286203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01001461936844758</v>
+        <v>0.006509543870204044</v>
       </c>
       <c r="C83">
-        <v>0.04810377078792937</v>
+        <v>0.01813869748050722</v>
       </c>
       <c r="D83">
-        <v>-0.008117767803017952</v>
+        <v>-0.02647323039550509</v>
       </c>
       <c r="E83">
-        <v>-0.0467573200531143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09428719423210291</v>
+      </c>
+      <c r="F83">
+        <v>0.09599495546284889</v>
+      </c>
+      <c r="G83">
+        <v>-0.2608775768905422</v>
+      </c>
+      <c r="H83">
+        <v>0.8955760006242288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.000622727027000119</v>
+        <v>0.003771099843262822</v>
       </c>
       <c r="C84">
-        <v>0.003666561574996118</v>
+        <v>0.01742815338052159</v>
       </c>
       <c r="D84">
-        <v>-0.009988663444540297</v>
+        <v>-0.04251260717476114</v>
       </c>
       <c r="E84">
-        <v>0.0009073884448168471</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01677675631012695</v>
+      </c>
+      <c r="F84">
+        <v>0.02763892408060356</v>
+      </c>
+      <c r="G84">
+        <v>-0.05288044387223502</v>
+      </c>
+      <c r="H84">
+        <v>-0.05918637028265225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.130094418865612</v>
+        <v>-0.05690938200137213</v>
       </c>
       <c r="C85">
-        <v>0.1518854441354603</v>
+        <v>0.175896484578809</v>
       </c>
       <c r="D85">
-        <v>0.08333655795641552</v>
+        <v>0.1119392043365876</v>
       </c>
       <c r="E85">
-        <v>-0.004342413441564975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02452647613721867</v>
+      </c>
+      <c r="F85">
+        <v>0.05827794714537758</v>
+      </c>
+      <c r="G85">
+        <v>-0.02031179392920711</v>
+      </c>
+      <c r="H85">
+        <v>-0.01760132125447628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02409476002969027</v>
+        <v>-0.01720363480771955</v>
       </c>
       <c r="C86">
-        <v>0.01003919724106542</v>
+        <v>0.04113926666753792</v>
       </c>
       <c r="D86">
-        <v>-0.1140995333444517</v>
+        <v>-0.1109432921096828</v>
       </c>
       <c r="E86">
-        <v>-0.05447507026450004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.009565358912538274</v>
+      </c>
+      <c r="F86">
+        <v>0.02221560286005757</v>
+      </c>
+      <c r="G86">
+        <v>0.00775649433256533</v>
+      </c>
+      <c r="H86">
+        <v>-0.01382282565703644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02417582009244672</v>
+        <v>-0.01267356291472278</v>
       </c>
       <c r="C87">
-        <v>0.03499566892800594</v>
+        <v>0.06806026295056869</v>
       </c>
       <c r="D87">
-        <v>-0.1373223220238622</v>
+        <v>-0.1255906196143021</v>
       </c>
       <c r="E87">
-        <v>-0.09459305324534027</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05704650997985077</v>
+      </c>
+      <c r="F87">
+        <v>0.04570029693450633</v>
+      </c>
+      <c r="G87">
+        <v>-0.08151866407001115</v>
+      </c>
+      <c r="H87">
+        <v>0.0003354446312890059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.045613882951747</v>
+        <v>-0.03356183579616691</v>
       </c>
       <c r="C88">
-        <v>0.0494852948947801</v>
+        <v>0.07100744436306936</v>
       </c>
       <c r="D88">
-        <v>-0.002377103507766605</v>
+        <v>-0.01027679403575895</v>
       </c>
       <c r="E88">
-        <v>-0.02333604833025408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03347641681727833</v>
+      </c>
+      <c r="F88">
+        <v>0.02097961984538002</v>
+      </c>
+      <c r="G88">
+        <v>0.009727818845057986</v>
+      </c>
+      <c r="H88">
+        <v>-0.01494188690962556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3442783800179458</v>
+        <v>-0.3965968735672942</v>
       </c>
       <c r="C89">
-        <v>-0.2979620700042015</v>
+        <v>-0.1665701557263316</v>
       </c>
       <c r="D89">
-        <v>-0.02323932252491853</v>
+        <v>-0.05126205140360772</v>
       </c>
       <c r="E89">
-        <v>-0.1137791232526899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03247271812941781</v>
+      </c>
+      <c r="F89">
+        <v>0.07622271438192428</v>
+      </c>
+      <c r="G89">
+        <v>-0.08573603130812249</v>
+      </c>
+      <c r="H89">
+        <v>0.05802799680250768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2750096554606166</v>
+        <v>-0.3221226976040532</v>
       </c>
       <c r="C90">
-        <v>-0.2179823975641347</v>
+        <v>-0.1076446541847017</v>
       </c>
       <c r="D90">
-        <v>-0.06155155905570778</v>
+        <v>-0.03363876230652059</v>
       </c>
       <c r="E90">
-        <v>-0.004572646083494275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.001995703530681496</v>
+      </c>
+      <c r="F90">
+        <v>-0.009421347394941482</v>
+      </c>
+      <c r="G90">
+        <v>-0.05608872906434472</v>
+      </c>
+      <c r="H90">
+        <v>0.003479513492648638</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.135466558782232</v>
+        <v>-0.06743638983428575</v>
       </c>
       <c r="C91">
-        <v>0.1998830079615617</v>
+        <v>0.2024491438842041</v>
       </c>
       <c r="D91">
-        <v>0.09011279551677678</v>
+        <v>0.09748737276171851</v>
       </c>
       <c r="E91">
-        <v>-0.03657469362795078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08527200062903867</v>
+      </c>
+      <c r="F91">
+        <v>0.06067717321705163</v>
+      </c>
+      <c r="G91">
+        <v>-0.01417448856287382</v>
+      </c>
+      <c r="H91">
+        <v>0.02073676817377393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2588963056462012</v>
+        <v>-0.3351561250614659</v>
       </c>
       <c r="C92">
-        <v>-0.245323509265527</v>
+        <v>-0.1501226084266842</v>
       </c>
       <c r="D92">
-        <v>0.04759882636599225</v>
+        <v>-0.02213000630928679</v>
       </c>
       <c r="E92">
-        <v>-0.01868292641860535</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06539200459123236</v>
+      </c>
+      <c r="F92">
+        <v>0.03762629970221517</v>
+      </c>
+      <c r="G92">
+        <v>0.001179975530205681</v>
+      </c>
+      <c r="H92">
+        <v>-0.1366421944487558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2939377524606676</v>
+        <v>-0.3287812963837777</v>
       </c>
       <c r="C93">
-        <v>-0.2248814407715325</v>
+        <v>-0.1206141806243168</v>
       </c>
       <c r="D93">
-        <v>0.02361253101506902</v>
+        <v>0.02597752956524915</v>
       </c>
       <c r="E93">
-        <v>0.01272605572294107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0101542786588265</v>
+      </c>
+      <c r="F93">
+        <v>0.005388223800539863</v>
+      </c>
+      <c r="G93">
+        <v>0.02432537353282025</v>
+      </c>
+      <c r="H93">
+        <v>-0.01963187625317405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2511993744396679</v>
+        <v>-0.1218891028146787</v>
       </c>
       <c r="C94">
-        <v>0.2825546330009243</v>
+        <v>0.3194669680216211</v>
       </c>
       <c r="D94">
-        <v>0.209900210913856</v>
+        <v>0.3465084201748125</v>
       </c>
       <c r="E94">
-        <v>0.3120815711307964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1487452423296679</v>
+      </c>
+      <c r="F94">
+        <v>-0.1529668023194747</v>
+      </c>
+      <c r="G94">
+        <v>-0.2878511853356456</v>
+      </c>
+      <c r="H94">
+        <v>-0.1107787747072274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01252025473007104</v>
+        <v>-0.01851955567134079</v>
       </c>
       <c r="C95">
-        <v>0.04867967370008441</v>
+        <v>0.07647400321889557</v>
       </c>
       <c r="D95">
-        <v>-0.1195694326907426</v>
+        <v>-0.1435196495955588</v>
       </c>
       <c r="E95">
-        <v>-0.06559039192460202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.08687887678958781</v>
+      </c>
+      <c r="F95">
+        <v>-0.03426530556523734</v>
+      </c>
+      <c r="G95">
+        <v>0.06504235969074997</v>
+      </c>
+      <c r="H95">
+        <v>-0.04165911876583533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0026219137795074</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001033408848778308</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003690086715623776</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.00358768472173525</v>
+      </c>
+      <c r="F97">
+        <v>0.0007374003029021397</v>
+      </c>
+      <c r="G97">
+        <v>-0.001120199823688599</v>
+      </c>
+      <c r="H97">
+        <v>-0.005706774906513237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1483353049772156</v>
+        <v>-0.135991707202764</v>
       </c>
       <c r="C98">
-        <v>0.0996692555625284</v>
+        <v>0.1618611855013969</v>
       </c>
       <c r="D98">
-        <v>-0.1227231307233983</v>
+        <v>-0.01351483829747527</v>
       </c>
       <c r="E98">
-        <v>0.1132512952159236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1788856736840888</v>
+      </c>
+      <c r="F98">
+        <v>-0.2425942905368879</v>
+      </c>
+      <c r="G98">
+        <v>0.3036686446081581</v>
+      </c>
+      <c r="H98">
+        <v>0.1208052155758144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00180191536323229</v>
+        <v>-0.002917433273250904</v>
       </c>
       <c r="C101">
-        <v>0.02042998374452755</v>
+        <v>0.04037654995695412</v>
       </c>
       <c r="D101">
-        <v>-0.07120438921892387</v>
+        <v>-0.08860333534604807</v>
       </c>
       <c r="E101">
-        <v>-0.04740020469917118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1029090660057079</v>
+      </c>
+      <c r="F101">
+        <v>0.03805900201282603</v>
+      </c>
+      <c r="G101">
+        <v>-0.01522702829411316</v>
+      </c>
+      <c r="H101">
+        <v>0.03768121921260818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08951916146809218</v>
+        <v>-0.02260471380894771</v>
       </c>
       <c r="C102">
-        <v>0.1658315824440293</v>
+        <v>0.1382581384172847</v>
       </c>
       <c r="D102">
-        <v>0.01053778748865201</v>
+        <v>0.09146379291150607</v>
       </c>
       <c r="E102">
-        <v>0.1022099284585463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05993614514721685</v>
+      </c>
+      <c r="F102">
+        <v>-0.08501671477075438</v>
+      </c>
+      <c r="G102">
+        <v>-0.01346495620822998</v>
+      </c>
+      <c r="H102">
+        <v>0.0287972263765035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
